--- a/data/tom_finalharvest_avg.xlsx
+++ b/data/tom_finalharvest_avg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharyhirsch-santagata/Desktop/2025 STAT/CRSS 8030/org_harvest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFB1487-CBE2-EA48-8A58-4C712E4FB2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE765D8-D786-334D-9BDD-74FFEE781928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{553229F0-DAEB-B54A-833E-039BE82CFC62}"/>
+    <workbookView xWindow="9020" yWindow="3100" windowWidth="27640" windowHeight="16940" xr2:uid="{553229F0-DAEB-B54A-833E-039BE82CFC62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
